--- a/sample/input/フッター定義書.xlsx
+++ b/sample/input/フッター定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>置換変数</t>
   </si>
@@ -32,7 +32,7 @@
     <t>部品</t>
   </si>
   <si>
-    <t>No</t>
+    <t>行番号</t>
   </si>
   <si>
     <t>【お問い合わせ】</t>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>こちらのメールアドレスは送信専用です。</t>
-  </si>
-  <si>
-    <t>項目番号</t>
   </si>
   <si>
     <t>説明</t>
@@ -103,11 +100,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -291,37 +288,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -743,15 +740,16 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="112.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
@@ -818,19 +816,19 @@
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -839,23 +837,23 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="12">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -864,23 +862,23 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="15">
         <v>8</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="J8" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -889,7 +887,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6"/>
       <c r="G9" s="1"/>
@@ -902,7 +900,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="1"/>
@@ -914,7 +912,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="G11" s="1"/>
@@ -926,7 +924,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="1"/>
@@ -938,7 +936,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6"/>
       <c r="G13" s="1"/>

--- a/sample/input/フッター定義書.xlsx
+++ b/sample/input/フッター定義書.xlsx
@@ -101,10 +101,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -288,37 +288,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -740,7 +740,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -789,7 +789,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -803,8 +803,6 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5"/>
-      <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">

--- a/sample/input/フッター定義書.xlsx
+++ b/sample/input/フッター定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>置換変数</t>
   </si>
@@ -23,6 +23,9 @@
     <t>種別</t>
   </si>
   <si>
+    <t>冒頭の部品セット文</t>
+  </si>
+  <si>
     <t>■ サンプルメール</t>
   </si>
   <si>
@@ -32,6 +35,10 @@
     <t>部品</t>
   </si>
   <si>
+    <t>#set($contentCancel = $parts.ContentCancelBean)
+#set($notice = $parts.NoticeBean)</t>
+  </si>
+  <si>
     <t>行番号</t>
   </si>
   <si>
@@ -71,6 +78,21 @@
     <t>ご利用に際してご不明の点がございましたら、下記URLよりご確認ください。</t>
   </si>
   <si>
+    <t>コンテンツ</t>
+  </si>
+  <si>
+    <t>＜コンテンツ＞</t>
+  </si>
+  <si>
+    <t>$INCLUDE$contentCancel</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>チケットぴあ　ヘルプ http://t.pia.jp/help/index.html</t>
+  </si>
+  <si>
     <t>サービスドメイン</t>
   </si>
   <si>
@@ -78,12 +100,6 @@
   </si>
   <si>
     <t>serviceDomain</t>
-  </si>
-  <si>
-    <t>チケットぴあ　ヘルプ http://t.pia.jp/help/index.html</t>
-  </si>
-  <si>
-    <t>今後ともチケットぴあをご愛顧いただきますようお願いいたします。</t>
   </si>
   <si>
     <t>---------------------------------------</t>
@@ -101,10 +117,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -160,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -189,9 +205,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -202,24 +216,11 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -231,8 +232,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -247,7 +250,7 @@
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -259,8 +262,10 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -269,16 +274,130 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -288,44 +407,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -365,28 +484,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="12" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -751,39 +891,45 @@
     <col min="4" max="5" width="3.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="52.05" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:10">
-      <c r="I1" s="18" t="s">
+    <row r="1" spans="9:12">
+      <c r="I1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="2:10">
+      <c r="L1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="24" t="s">
         <v>4</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -795,11 +941,11 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -810,23 +956,23 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>11</v>
+      <c r="J6" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -835,23 +981,23 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="12">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="20" t="s">
         <v>16</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -860,23 +1006,23 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -885,24 +1031,37 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="18">
+        <v>8</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="J10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -910,7 +1069,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6"/>
       <c r="G11" s="1"/>
@@ -922,29 +1081,31 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="2:4">
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14"/>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="2"/>

--- a/sample/input/フッター定義書.xlsx
+++ b/sample/input/フッター定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>置換変数</t>
   </si>
@@ -23,16 +23,22 @@
     <t>種別</t>
   </si>
   <si>
+    <t>クラスコメント</t>
+  </si>
+  <si>
     <t>冒頭の部品セット文</t>
   </si>
   <si>
-    <t>■ サンプルメール</t>
+    <t>■ フッター部品</t>
   </si>
   <si>
     <t>footer</t>
   </si>
   <si>
     <t>部品</t>
+  </si>
+  <si>
+    <t>フッター部品用Bean</t>
   </si>
   <si>
     <t>#set($contentCancel = $parts.ContentCancelBean)
@@ -880,7 +886,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -894,7 +900,7 @@
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="52.05" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
@@ -908,28 +914,34 @@
       <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
+      <c r="K1" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="L1" s="23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="2:12">
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="I2" s="24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -941,11 +953,11 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -956,23 +968,23 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -981,23 +993,23 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="12">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1006,23 +1018,23 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="15">
         <v>6</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1031,23 +1043,23 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="18">
         <v>8</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1056,7 +1068,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="1"/>
@@ -1069,7 +1081,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6"/>
       <c r="G11" s="1"/>
@@ -1081,7 +1093,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="1"/>
@@ -1093,7 +1105,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6"/>
       <c r="G13" s="1"/>

--- a/sample/input/フッター定義書.xlsx
+++ b/sample/input/フッター定義書.xlsx
@@ -32,7 +32,7 @@
     <t>■ フッター部品</t>
   </si>
   <si>
-    <t>footer</t>
+    <t>comcom_footer</t>
   </si>
   <si>
     <t>部品</t>
@@ -123,10 +123,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -416,34 +416,34 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -886,7 +886,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/sample/input/フッター定義書.xlsx
+++ b/sample/input/フッター定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>置換変数</t>
   </si>
@@ -54,16 +54,22 @@
     <t>表示仕様</t>
   </si>
   <si>
+    <t>Beanクラス上のプロパティ定義</t>
+  </si>
+  <si>
     <t>こちらのメールアドレスは送信専用です。</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>置換対象</t>
-  </si>
-  <si>
-    <t>型</t>
+    <t>ラベル（簡易的な説明）</t>
+  </si>
+  <si>
+    <t>置換対象（表示内容が動的に変わる部分）</t>
+  </si>
+  <si>
+    <t>プロパティ名</t>
+  </si>
+  <si>
+    <t>定義上の型</t>
   </si>
   <si>
     <t>直接返信されても返答できませんのであらかじめご了承ください。</t>
@@ -90,7 +96,7 @@
     <t>＜コンテンツ＞</t>
   </si>
   <si>
-    <t>$INCLUDE$contentCancel</t>
+    <t>$INCLUDE$content_cancel</t>
   </si>
   <si>
     <t>-</t>
@@ -122,11 +128,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -182,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -215,10 +221,182 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -226,22 +404,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -250,159 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -413,44 +454,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -481,49 +522,49 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
@@ -532,7 +573,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,8 +950,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -896,10 +961,10 @@
     <col min="3" max="3" width="112.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40" style="2" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="52.05" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
@@ -947,7 +1012,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -961,6 +1026,10 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
+      <c r="I5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
@@ -968,23 +1037,23 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -993,23 +1062,23 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="12">
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="25" t="s">
         <v>20</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1018,23 +1087,23 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="15">
         <v>6</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="25" t="s">
         <v>25</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1043,23 +1112,23 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="18">
         <v>8</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1068,7 +1137,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="1"/>
@@ -1081,7 +1150,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="G11" s="1"/>
@@ -1093,7 +1162,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="1"/>
@@ -1105,7 +1174,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6"/>
       <c r="G13" s="1"/>
@@ -1123,8 +1192,9 @@
       <c r="D15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
